--- a/시장분석용_정보/시장분석용_4884031000.xlsx
+++ b/시장분석용_정보/시장분석용_4884031000.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="71">
-  <si>
-    <t>중첩매칭</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="102">
+  <si>
+    <t>중복체크</t>
+  </si>
+  <si>
+    <t>sim_cd</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
   <si>
     <t>TA_YM</t>
@@ -25,19 +31,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>MCT_NO</t>
-  </si>
-  <si>
     <t>MCT_BRN</t>
   </si>
   <si>
     <t>MCT_NM</t>
   </si>
   <si>
-    <t>GDS_AF_MCT_AR2</t>
-  </si>
-  <si>
-    <t>sim_cd</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>hdong_code</t>
   </si>
   <si>
     <t>area</t>
@@ -46,9 +49,6 @@
     <t>hos_type</t>
   </si>
   <si>
-    <t>hdong_code</t>
-  </si>
-  <si>
     <t>EST_HGA</t>
   </si>
   <si>
@@ -58,6 +58,54 @@
     <t>AVG_AMT</t>
   </si>
   <si>
+    <t>WK_RT</t>
+  </si>
+  <si>
+    <t>WE_RT</t>
+  </si>
+  <si>
+    <t>WK_1_RT</t>
+  </si>
+  <si>
+    <t>WK_2_RT</t>
+  </si>
+  <si>
+    <t>WK_3_RT</t>
+  </si>
+  <si>
+    <t>WK_4_RT</t>
+  </si>
+  <si>
+    <t>WK_5_RT</t>
+  </si>
+  <si>
+    <t>WK_6_RT</t>
+  </si>
+  <si>
+    <t>WK_7_RT</t>
+  </si>
+  <si>
+    <t>TIME_0510_RT</t>
+  </si>
+  <si>
+    <t>TIME_1114_RT</t>
+  </si>
+  <si>
+    <t>TIME_1517_RT</t>
+  </si>
+  <si>
+    <t>TIME_1819_RT</t>
+  </si>
+  <si>
+    <t>TIME_2021_RT</t>
+  </si>
+  <si>
+    <t>TIME_2224_RT</t>
+  </si>
+  <si>
+    <t>TIME_0104_RT</t>
+  </si>
+  <si>
     <t>F20_RT</t>
   </si>
   <si>
@@ -112,100 +160,151 @@
     <t>IC_1099_RT</t>
   </si>
   <si>
-    <t>202001 6109019516</t>
-  </si>
-  <si>
-    <t>202002 6109019516</t>
-  </si>
-  <si>
-    <t>202003 6109019516</t>
-  </si>
-  <si>
-    <t>202004 6129602973</t>
-  </si>
-  <si>
-    <t>202005 6109019516</t>
-  </si>
-  <si>
-    <t>202006 6109019516</t>
-  </si>
-  <si>
-    <t>202007 6109019516</t>
-  </si>
-  <si>
-    <t>202009 6109019516</t>
-  </si>
-  <si>
-    <t>202010 6109019516</t>
-  </si>
-  <si>
-    <t>202011 6109019516</t>
-  </si>
-  <si>
-    <t>202012 6109019516</t>
-  </si>
-  <si>
-    <t>202102 6109019516</t>
-  </si>
-  <si>
-    <t>202103 6109019516</t>
-  </si>
-  <si>
-    <t>202104 6129602973</t>
-  </si>
-  <si>
-    <t>202104 6109019516</t>
-  </si>
-  <si>
-    <t>202105 6109019516</t>
-  </si>
-  <si>
-    <t>202106 6129602973</t>
-  </si>
-  <si>
-    <t>202106 6109019516</t>
-  </si>
-  <si>
-    <t>202107 6129602973</t>
-  </si>
-  <si>
-    <t>202107 6109019516</t>
-  </si>
-  <si>
-    <t>202108 6129602973</t>
-  </si>
-  <si>
-    <t>202108 6109019516</t>
-  </si>
-  <si>
-    <t>202109 6109019516</t>
-  </si>
-  <si>
-    <t>202110 6129602973</t>
-  </si>
-  <si>
-    <t>202110 6109019516</t>
-  </si>
-  <si>
-    <t>202111 6129602973</t>
-  </si>
-  <si>
-    <t>202111 6109019516</t>
-  </si>
-  <si>
-    <t>202112 6109019516</t>
-  </si>
-  <si>
-    <t>202201 6109019516</t>
-  </si>
-  <si>
-    <t>202202 6109019516</t>
-  </si>
-  <si>
-    <t>202204 6109019516</t>
-  </si>
-  <si>
-    <t>202205 6109019516</t>
+    <t>LIFE_01_RT</t>
+  </si>
+  <si>
+    <t>LIFE_02_RT</t>
+  </si>
+  <si>
+    <t>LIFE_03_RT</t>
+  </si>
+  <si>
+    <t>LIFE_04_RT</t>
+  </si>
+  <si>
+    <t>LIFE_05_RT</t>
+  </si>
+  <si>
+    <t>LIFE_06_RT</t>
+  </si>
+  <si>
+    <t>FTJB_HUWF_RT</t>
+  </si>
+  <si>
+    <t>STUD_RT</t>
+  </si>
+  <si>
+    <t>SCTY_EAR_H_RT</t>
+  </si>
+  <si>
+    <t>GDS_01_RT</t>
+  </si>
+  <si>
+    <t>GDS_02_RT</t>
+  </si>
+  <si>
+    <t>GDS_03_RT</t>
+  </si>
+  <si>
+    <t>REVISIT_RT</t>
+  </si>
+  <si>
+    <t>FREQ_RT</t>
+  </si>
+  <si>
+    <t>6109019516 202001</t>
+  </si>
+  <si>
+    <t>6109019516 202002</t>
+  </si>
+  <si>
+    <t>6109019516 202003</t>
+  </si>
+  <si>
+    <t>6129602973 202004</t>
+  </si>
+  <si>
+    <t>6109019516 202005</t>
+  </si>
+  <si>
+    <t>6109019516 202006</t>
+  </si>
+  <si>
+    <t>6109019516 202007</t>
+  </si>
+  <si>
+    <t>6109019516 202009</t>
+  </si>
+  <si>
+    <t>6109019516 202010</t>
+  </si>
+  <si>
+    <t>6109019516 202011</t>
+  </si>
+  <si>
+    <t>6109019516 202012</t>
+  </si>
+  <si>
+    <t>6109019516 202102</t>
+  </si>
+  <si>
+    <t>6109019516 202103</t>
+  </si>
+  <si>
+    <t>6129602973 202104</t>
+  </si>
+  <si>
+    <t>6109019516 202104</t>
+  </si>
+  <si>
+    <t>6109019516 202105</t>
+  </si>
+  <si>
+    <t>6129602973 202106</t>
+  </si>
+  <si>
+    <t>6109019516 202106</t>
+  </si>
+  <si>
+    <t>6129602973 202107</t>
+  </si>
+  <si>
+    <t>6109019516 202107</t>
+  </si>
+  <si>
+    <t>6129602973 202108</t>
+  </si>
+  <si>
+    <t>6109019516 202108</t>
+  </si>
+  <si>
+    <t>6109019516 202109</t>
+  </si>
+  <si>
+    <t>6129602973 202110</t>
+  </si>
+  <si>
+    <t>6109019516 202110</t>
+  </si>
+  <si>
+    <t>6129602973 202111</t>
+  </si>
+  <si>
+    <t>6109019516 202111</t>
+  </si>
+  <si>
+    <t>6109019516 202112</t>
+  </si>
+  <si>
+    <t>6109019516 202201</t>
+  </si>
+  <si>
+    <t>6109019516 202202</t>
+  </si>
+  <si>
+    <t>6109019516 202204</t>
+  </si>
+  <si>
+    <t>6109019516 202205</t>
+  </si>
+  <si>
+    <t>JDQ4MTYyMiM4MSMkMiMkNCMkMDAkMzgxMTkxIzIxIyQxIyQxIyQ3MiQzNjEyMjIjNDEjJDEjJDgjJDgz</t>
+  </si>
+  <si>
+    <t>JDQ4MTYyMiM4MSMkMiMkNCMkMDAkMzgxOTYxIzIxIyQxIyQxIyQ4OSQyNjE4MzIjNDEjJDEjJDgjJDgz</t>
+  </si>
+  <si>
+    <t>경상남도</t>
   </si>
   <si>
     <t>이동의원</t>
@@ -214,16 +313,10 @@
     <t>남해금산의원</t>
   </si>
   <si>
-    <t>경상남도 남해군 이동면 무림로 58</t>
-  </si>
-  <si>
-    <t>경상남도 남해군 이동면 무림로 47-1</t>
-  </si>
-  <si>
-    <t>JDQ4MTYyMiM4MSMkMiMkNCMkMDAkMzgxMTkxIzIxIyQxIyQxIyQ3MiQzNjEyMjIjNDEjJDEjJDgjJDgz</t>
-  </si>
-  <si>
-    <t>JDQ4MTYyMiM4MSMkMiMkNCMkMDAkMzgxOTYxIzIxIyQxIyQxIyQ4OSQyNjE4MzIjNDEjJDEjJDgjJDgz</t>
+    <t>경상남도 남해군 이동면 무림로 50 ()</t>
+  </si>
+  <si>
+    <t>경상남도 남해군 이동면 무림로 47-1 (이동면)</t>
   </si>
   <si>
     <t>일반의원</t>
@@ -584,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:BK33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:63">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,43 +780,133 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
-        <v>1864</v>
+        <v>938</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2">
         <v>202001</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>2020</v>
       </c>
-      <c r="E2">
-        <v>53000824</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>6109019516</v>
       </c>
-      <c r="G2" t="s">
-        <v>64</v>
-      </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J2">
+        <v>4884031000</v>
+      </c>
+      <c r="K2">
         <v>38.30909090909091</v>
       </c>
-      <c r="K2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2">
-        <v>4884031000</v>
+      <c r="L2" t="s">
+        <v>101</v>
       </c>
       <c r="M2">
         <v>359811</v>
@@ -735,7 +918,7 @@
         <v>23300</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -744,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>23.61</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>4.86</v>
       </c>
       <c r="V2">
         <v>71.53</v>
@@ -759,13 +942,13 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>4.86</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>23.61</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>76.39</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -774,57 +957,147 @@
         <v>0</v>
       </c>
       <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
         <v>71.53</v>
       </c>
-      <c r="AD2">
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>4.86</v>
+      </c>
+      <c r="AO2">
         <v>23.61</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>71.53</v>
+      </c>
+      <c r="AT2">
+        <v>23.61</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
         <v>4.86</v>
       </c>
-      <c r="AG2">
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>71.53</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>4.86</v>
+      </c>
+      <c r="BC2">
+        <v>23.61</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>28.47</v>
+      </c>
+      <c r="BH2">
+        <v>28.47</v>
+      </c>
+      <c r="BI2">
+        <v>28.47</v>
+      </c>
+      <c r="BJ2">
+        <v>33.3</v>
+      </c>
+      <c r="BK2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:63">
       <c r="A3" s="1">
-        <v>23401</v>
+        <v>3713</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3">
         <v>202002</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>2020</v>
       </c>
-      <c r="E3">
-        <v>53000824</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>6109019516</v>
       </c>
-      <c r="G3" t="s">
-        <v>64</v>
-      </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J3">
+        <v>4884031000</v>
+      </c>
+      <c r="K3">
         <v>38.30909090909091</v>
       </c>
-      <c r="K3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L3">
-        <v>4884031000</v>
+      <c r="L3" t="s">
+        <v>101</v>
       </c>
       <c r="M3">
         <v>156003</v>
@@ -836,96 +1109,186 @@
         <v>10200</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>20.59</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>79.41</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>15.69</v>
       </c>
-      <c r="T3">
+      <c r="V3">
+        <v>4.9</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
         <v>79.41</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
+      <c r="Y3">
+        <v>79.41</v>
+      </c>
+      <c r="Z3">
         <v>4.9</v>
       </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
       <c r="AA3">
-        <v>0</v>
+        <v>15.69</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>15.69</v>
+      </c>
+      <c r="AJ3">
         <v>79.41</v>
       </c>
-      <c r="AD3">
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>4.9</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>79.41</v>
+      </c>
+      <c r="AT3">
         <v>20.59</v>
       </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>4.9</v>
+      </c>
+      <c r="BB3">
+        <v>15.69</v>
+      </c>
+      <c r="BC3">
+        <v>79.41</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>84.31</v>
+      </c>
+      <c r="BH3">
+        <v>100</v>
+      </c>
+      <c r="BI3">
+        <v>100</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:63">
       <c r="A4" s="1">
-        <v>44855</v>
+        <v>6483</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4">
         <v>202003</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>2020</v>
       </c>
-      <c r="E4">
-        <v>53000824</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>6109019516</v>
       </c>
-      <c r="G4" t="s">
-        <v>64</v>
-      </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J4">
+        <v>4884031000</v>
+      </c>
+      <c r="K4">
         <v>38.30909090909091</v>
       </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4">
-        <v>4884031000</v>
+      <c r="L4" t="s">
+        <v>101</v>
       </c>
       <c r="M4">
         <v>28229</v>
@@ -937,38 +1300,38 @@
         <v>2850</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>26.32</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>26.32</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
         <v>73.68000000000001</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
+      <c r="Y4">
+        <v>73.68000000000001</v>
+      </c>
+      <c r="Z4">
         <v>26.32</v>
       </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
       <c r="AA4">
         <v>0</v>
       </c>
@@ -979,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -990,43 +1353,133 @@
       <c r="AG4">
         <v>0</v>
       </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>73.68000000000001</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>26.32</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>100</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>26.32</v>
+      </c>
+      <c r="BB4">
+        <v>73.68000000000001</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>100</v>
+      </c>
+      <c r="BH4">
+        <v>100</v>
+      </c>
+      <c r="BI4">
+        <v>100</v>
+      </c>
+      <c r="BJ4">
+        <v>50</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:63">
       <c r="A5" s="1">
-        <v>66227</v>
+        <v>9246</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5">
         <v>202004</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>2020</v>
       </c>
-      <c r="E5">
-        <v>46266540</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>6129602973</v>
       </c>
-      <c r="G5" t="s">
-        <v>65</v>
-      </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="J5">
+        <v>4884031000</v>
+      </c>
+      <c r="K5">
         <v>25.70909090909091</v>
       </c>
-      <c r="K5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5">
-        <v>4884031000</v>
+      <c r="L5" t="s">
+        <v>101</v>
       </c>
       <c r="M5">
         <v>276778</v>
@@ -1038,96 +1491,186 @@
         <v>27700</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>9.75</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>90.25</v>
       </c>
       <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>9.75</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
         <v>90.25</v>
       </c>
-      <c r="S5">
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>100</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>90.25</v>
+      </c>
+      <c r="AI5">
         <v>9.75</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>90.25</v>
       </c>
-      <c r="AD5">
+      <c r="AT5">
         <v>9.75</v>
       </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>90.25</v>
+      </c>
+      <c r="BB5">
+        <v>9.75</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>100</v>
+      </c>
+      <c r="BI5">
+        <v>100</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:63">
       <c r="A6" s="1">
-        <v>87711</v>
+        <v>12017</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6">
         <v>202005</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>2020</v>
       </c>
-      <c r="E6">
-        <v>53000824</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>6109019516</v>
       </c>
-      <c r="G6" t="s">
-        <v>64</v>
-      </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J6">
+        <v>4884031000</v>
+      </c>
+      <c r="K6">
         <v>38.30909090909091</v>
       </c>
-      <c r="K6" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6">
-        <v>4884031000</v>
+      <c r="L6" t="s">
+        <v>101</v>
       </c>
       <c r="M6">
         <v>269202</v>
@@ -1139,96 +1682,186 @@
         <v>17733</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>93.61</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>6.39</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>6.39</v>
+      </c>
+      <c r="Z6">
+        <v>93.61</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
         <v>46.62</v>
       </c>
-      <c r="S6">
+      <c r="AI6">
         <v>6.39</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
         <v>46.99</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>100</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>100</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>46.62</v>
+      </c>
+      <c r="BB6">
+        <v>53.38</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>53.38</v>
+      </c>
+      <c r="BH6">
+        <v>100</v>
+      </c>
+      <c r="BI6">
+        <v>100</v>
+      </c>
+      <c r="BJ6">
+        <v>33.3</v>
+      </c>
+      <c r="BK6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:63">
       <c r="A7" s="1">
-        <v>109399</v>
+        <v>14787</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7">
         <v>202006</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>2020</v>
       </c>
-      <c r="E7">
-        <v>53000824</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <v>6109019516</v>
       </c>
-      <c r="G7" t="s">
-        <v>64</v>
-      </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J7">
+        <v>4884031000</v>
+      </c>
+      <c r="K7">
         <v>38.30909090909091</v>
       </c>
-      <c r="K7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7">
-        <v>4884031000</v>
+      <c r="L7" t="s">
+        <v>101</v>
       </c>
       <c r="M7">
         <v>615819</v>
@@ -1240,7 +1873,7 @@
         <v>60200</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1252,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>16.94</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1261,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>100</v>
+        <v>83.06</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1270,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1282,54 +1915,144 @@
         <v>0</v>
       </c>
       <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>100</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
         <v>83.06</v>
       </c>
-      <c r="AE7">
+      <c r="AU7">
         <v>16.94</v>
       </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>83.06</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>16.94</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>16.94</v>
+      </c>
+      <c r="BI7">
+        <v>16.94</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:63">
       <c r="A8" s="1">
-        <v>131104</v>
+        <v>17564</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8">
         <v>202007</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>2020</v>
       </c>
-      <c r="E8">
-        <v>53000824</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
         <v>6109019516</v>
       </c>
-      <c r="G8" t="s">
-        <v>64</v>
-      </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J8">
+        <v>4884031000</v>
+      </c>
+      <c r="K8">
         <v>38.30909090909091</v>
       </c>
-      <c r="K8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8">
-        <v>4884031000</v>
+      <c r="L8" t="s">
+        <v>101</v>
       </c>
       <c r="M8">
         <v>373002</v>
@@ -1341,96 +2064,186 @@
         <v>8100</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>94.23999999999999</v>
       </c>
       <c r="Q8">
+        <v>5.76</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>9.19</v>
+      </c>
+      <c r="T8">
+        <v>18.66</v>
+      </c>
+      <c r="U8">
+        <v>29.49</v>
+      </c>
+      <c r="V8">
+        <v>29.49</v>
+      </c>
+      <c r="W8">
+        <v>7.41</v>
+      </c>
+      <c r="X8">
+        <v>5.76</v>
+      </c>
+      <c r="Y8">
+        <v>72.15000000000001</v>
+      </c>
+      <c r="Z8">
+        <v>18.66</v>
+      </c>
+      <c r="AA8">
+        <v>9.19</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
         <v>24.01</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
         <v>4.66</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
         <v>12.35</v>
       </c>
-      <c r="Y8">
+      <c r="AO8">
         <v>58.98</v>
       </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
         <v>58.98</v>
       </c>
-      <c r="AD8">
+      <c r="AT8">
         <v>28.67</v>
       </c>
-      <c r="AE8">
+      <c r="AU8">
         <v>12.35</v>
       </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>24.01</v>
+      </c>
+      <c r="BA8">
+        <v>12.35</v>
+      </c>
+      <c r="BB8">
+        <v>4.66</v>
+      </c>
+      <c r="BC8">
+        <v>58.98</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>63.65</v>
+      </c>
+      <c r="BH8">
+        <v>100</v>
+      </c>
+      <c r="BI8">
+        <v>100</v>
+      </c>
+      <c r="BJ8">
+        <v>25</v>
+      </c>
+      <c r="BK8">
+        <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:63">
       <c r="A9" s="1">
-        <v>174538</v>
+        <v>23115</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9">
         <v>202009</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>2020</v>
       </c>
-      <c r="E9">
-        <v>53000824</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
         <v>6109019516</v>
       </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J9">
+        <v>4884031000</v>
+      </c>
+      <c r="K9">
         <v>38.30909090909091</v>
       </c>
-      <c r="K9" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9">
-        <v>4884031000</v>
+      <c r="L9" t="s">
+        <v>101</v>
       </c>
       <c r="M9">
         <v>34240</v>
@@ -1442,7 +2255,7 @@
         <v>2233</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1451,87 +2264,177 @@
         <v>0</v>
       </c>
       <c r="S9">
+        <v>26.87</v>
+      </c>
+      <c r="T9">
         <v>50.75</v>
       </c>
-      <c r="T9">
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <v>22.39</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>49.25</v>
+      </c>
+      <c r="Z9">
+        <v>50.75</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>50.75</v>
+      </c>
+      <c r="AJ9">
+        <v>22.39</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
         <v>26.87</v>
       </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
         <v>73.13</v>
       </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
         <v>26.87</v>
       </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>26.87</v>
+      </c>
+      <c r="BB9">
+        <v>50.75</v>
+      </c>
+      <c r="BC9">
+        <v>22.39</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>73.13</v>
+      </c>
+      <c r="BH9">
+        <v>73.13</v>
+      </c>
+      <c r="BI9">
+        <v>73.13</v>
+      </c>
+      <c r="BJ9">
+        <v>33.3</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:63">
       <c r="A10" s="1">
-        <v>196276</v>
+        <v>25916</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10">
         <v>202010</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>2020</v>
       </c>
-      <c r="E10">
-        <v>53000824</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
         <v>6109019516</v>
       </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J10">
+        <v>4884031000</v>
+      </c>
+      <c r="K10">
         <v>38.30909090909091</v>
       </c>
-      <c r="K10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10">
-        <v>4884031000</v>
+      <c r="L10" t="s">
+        <v>101</v>
       </c>
       <c r="M10">
         <v>160085</v>
@@ -1543,96 +2446,186 @@
         <v>6260</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>94.25</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>78.91</v>
       </c>
       <c r="T10">
+        <v>15.34</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>5.75</v>
+      </c>
+      <c r="Y10">
+        <v>69.33</v>
+      </c>
+      <c r="Z10">
+        <v>30.67</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
         <v>4.79</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
         <v>15.34</v>
       </c>
-      <c r="X10">
+      <c r="AN10">
         <v>79.87</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
         <v>4.79</v>
       </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
         <v>89.45999999999999</v>
       </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
         <v>5.75</v>
       </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>15.34</v>
+      </c>
+      <c r="BA10">
+        <v>79.87</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>4.79</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>4.79</v>
+      </c>
+      <c r="BH10">
+        <v>94.25</v>
+      </c>
+      <c r="BI10">
+        <v>94.25</v>
+      </c>
+      <c r="BJ10">
+        <v>20</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:63">
       <c r="A11" s="1">
-        <v>218019</v>
+        <v>28708</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11">
         <v>202011</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>2020</v>
       </c>
-      <c r="E11">
-        <v>53000824</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <v>6109019516</v>
       </c>
-      <c r="G11" t="s">
-        <v>64</v>
-      </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J11">
+        <v>4884031000</v>
+      </c>
+      <c r="K11">
         <v>38.30909090909091</v>
       </c>
-      <c r="K11" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11">
-        <v>4884031000</v>
+      <c r="L11" t="s">
+        <v>101</v>
       </c>
       <c r="M11">
         <v>320183</v>
@@ -1644,96 +2637,186 @@
         <v>10450</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>85.17</v>
+      </c>
+      <c r="T11">
+        <v>7.66</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>2.39</v>
       </c>
-      <c r="R11">
+      <c r="W11">
+        <v>4.78</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
         <v>7.66</v>
       </c>
-      <c r="S11">
+      <c r="Z11">
+        <v>92.34</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>2.39</v>
+      </c>
+      <c r="AH11">
+        <v>7.66</v>
+      </c>
+      <c r="AI11">
         <v>5.42</v>
       </c>
-      <c r="T11">
+      <c r="AJ11">
         <v>4.78</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
         <v>79.73999999999999</v>
       </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
         <v>12.44</v>
       </c>
-      <c r="AD11">
+      <c r="AT11">
         <v>7.81</v>
       </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
         <v>79.73999999999999</v>
       </c>
+      <c r="AX11">
+        <v>2.39</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="BB11">
+        <v>5.42</v>
+      </c>
+      <c r="BC11">
+        <v>4.78</v>
+      </c>
+      <c r="BD11">
+        <v>7.66</v>
+      </c>
+      <c r="BE11">
+        <v>2.39</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>20.26</v>
+      </c>
+      <c r="BH11">
+        <v>20.26</v>
+      </c>
+      <c r="BI11">
+        <v>20.26</v>
+      </c>
+      <c r="BJ11">
+        <v>40</v>
+      </c>
+      <c r="BK11">
+        <v>20</v>
+      </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:63">
       <c r="A12" s="1">
-        <v>239827</v>
+        <v>31499</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12">
         <v>202012</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>2020</v>
       </c>
-      <c r="E12">
-        <v>53000824</v>
-      </c>
-      <c r="F12">
+      <c r="G12">
         <v>6109019516</v>
       </c>
-      <c r="G12" t="s">
-        <v>64</v>
-      </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J12">
+        <v>4884031000</v>
+      </c>
+      <c r="K12">
         <v>38.30909090909091</v>
       </c>
-      <c r="K12" t="s">
-        <v>70</v>
-      </c>
-      <c r="L12">
-        <v>4884031000</v>
+      <c r="L12" t="s">
+        <v>101</v>
       </c>
       <c r="M12">
         <v>140392</v>
@@ -1745,7 +2828,7 @@
         <v>9200</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1760,22 +2843,22 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>93.48</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>6.52</v>
       </c>
       <c r="X12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>6.52</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>93.48</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -1790,51 +2873,141 @@
         <v>0</v>
       </c>
       <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>100</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
         <v>50.72</v>
       </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
         <v>49.28</v>
       </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>100</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>50.72</v>
+      </c>
+      <c r="BI12">
+        <v>50.72</v>
+      </c>
+      <c r="BJ12">
+        <v>100</v>
+      </c>
+      <c r="BK12">
+        <v>50</v>
+      </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:63">
       <c r="A13" s="1">
-        <v>283485</v>
+        <v>37085</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13">
         <v>202102</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>2021</v>
       </c>
-      <c r="E13">
-        <v>53000824</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
         <v>6109019516</v>
       </c>
-      <c r="G13" t="s">
-        <v>64</v>
-      </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J13">
+        <v>4884031000</v>
+      </c>
+      <c r="K13">
         <v>38.30909090909091</v>
       </c>
-      <c r="K13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13">
-        <v>4884031000</v>
+      <c r="L13" t="s">
+        <v>101</v>
       </c>
       <c r="M13">
         <v>393749</v>
@@ -1846,96 +3019,186 @@
         <v>9038</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>92.39</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>7.61</v>
       </c>
       <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="T13">
+        <v>7.61</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>14.38</v>
+      </c>
+      <c r="W13">
+        <v>60.86</v>
+      </c>
+      <c r="X13">
+        <v>7.61</v>
+      </c>
+      <c r="Y13">
+        <v>14.38</v>
+      </c>
+      <c r="Z13">
+        <v>60.86</v>
+      </c>
+      <c r="AA13">
+        <v>24.76</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
         <v>39.97</v>
       </c>
-      <c r="S13">
+      <c r="AI13">
         <v>4.84</v>
       </c>
-      <c r="T13">
+      <c r="AJ13">
         <v>48.41</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
         <v>6.78</v>
       </c>
-      <c r="Z13">
+      <c r="AP13">
         <v>48.41</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
         <v>4.84</v>
       </c>
-      <c r="AE13">
+      <c r="AU13">
         <v>46.75</v>
       </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>39.97</v>
+      </c>
+      <c r="BB13">
+        <v>53.25</v>
+      </c>
+      <c r="BC13">
+        <v>6.78</v>
+      </c>
+      <c r="BD13">
+        <v>88.38</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>53.25</v>
+      </c>
+      <c r="BH13">
+        <v>53.25</v>
+      </c>
+      <c r="BI13">
+        <v>60.03</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:63">
       <c r="A14" s="1">
-        <v>305300</v>
+        <v>39884</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14">
         <v>202103</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>2021</v>
       </c>
-      <c r="E14">
-        <v>53000824</v>
-      </c>
-      <c r="F14">
+      <c r="G14">
         <v>6109019516</v>
       </c>
-      <c r="G14" t="s">
-        <v>64</v>
-      </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J14">
+        <v>4884031000</v>
+      </c>
+      <c r="K14">
         <v>38.30909090909091</v>
       </c>
-      <c r="K14" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14">
-        <v>4884031000</v>
+      <c r="L14" t="s">
+        <v>101</v>
       </c>
       <c r="M14">
         <v>321309</v>
@@ -1947,7 +3210,7 @@
         <v>11480</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1956,87 +3219,177 @@
         <v>0</v>
       </c>
       <c r="S14">
+        <v>9.58</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>69.69</v>
+      </c>
+      <c r="V14">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="W14">
+        <v>12.2</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>63.59</v>
+      </c>
+      <c r="Z14">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="AA14">
+        <v>27.87</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
         <v>21.78</v>
       </c>
-      <c r="T14">
+      <c r="AJ14">
         <v>72.13</v>
       </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
         <v>6.1</v>
       </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
         <v>63.59</v>
       </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
         <v>8.539999999999999</v>
       </c>
-      <c r="AD14">
+      <c r="AT14">
         <v>15.68</v>
       </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
         <v>12.2</v>
       </c>
-      <c r="AG14">
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>6.1</v>
+      </c>
+      <c r="BB14">
+        <v>85.37</v>
+      </c>
+      <c r="BC14">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="BD14">
+        <v>63.59</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>78.22</v>
+      </c>
+      <c r="BH14">
+        <v>87.8</v>
+      </c>
+      <c r="BI14">
+        <v>100</v>
+      </c>
+      <c r="BJ14">
+        <v>20</v>
+      </c>
+      <c r="BK14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:63">
       <c r="A15" s="1">
-        <v>327255</v>
+        <v>42686</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15">
         <v>202104</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>2021</v>
       </c>
-      <c r="E15">
-        <v>46266540</v>
-      </c>
-      <c r="F15">
+      <c r="G15">
         <v>6129602973</v>
       </c>
-      <c r="G15" t="s">
-        <v>65</v>
-      </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="J15">
+        <v>4884031000</v>
+      </c>
+      <c r="K15">
         <v>25.70909090909091</v>
       </c>
-      <c r="K15" t="s">
-        <v>70</v>
-      </c>
-      <c r="L15">
-        <v>4884031000</v>
+      <c r="L15" t="s">
+        <v>101</v>
       </c>
       <c r="M15">
         <v>75291</v>
@@ -2048,7 +3401,7 @@
         <v>6850</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -2063,22 +3416,22 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>40.15</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15">
-        <v>100</v>
+        <v>59.85</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>40.15</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>59.85</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -2093,51 +3446,141 @@
         <v>0</v>
       </c>
       <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>100</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
         <v>40.15</v>
       </c>
-      <c r="AF15">
+      <c r="AV15">
         <v>59.85</v>
       </c>
-      <c r="AG15">
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>100</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>40.15</v>
+      </c>
+      <c r="BH15">
+        <v>40.15</v>
+      </c>
+      <c r="BI15">
+        <v>40.15</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:63">
       <c r="A16" s="1">
-        <v>327256</v>
+        <v>42687</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16">
         <v>202104</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>2021</v>
       </c>
-      <c r="E16">
-        <v>53000824</v>
-      </c>
-      <c r="F16">
+      <c r="G16">
         <v>6109019516</v>
       </c>
-      <c r="G16" t="s">
-        <v>64</v>
-      </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I16" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J16">
+        <v>4884031000</v>
+      </c>
+      <c r="K16">
         <v>38.30909090909091</v>
       </c>
-      <c r="K16" t="s">
-        <v>70</v>
-      </c>
-      <c r="L16">
-        <v>4884031000</v>
+      <c r="L16" t="s">
+        <v>101</v>
       </c>
       <c r="M16">
         <v>35604</v>
@@ -2149,7 +3592,7 @@
         <v>3500</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -2158,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <v>50</v>
@@ -2170,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X16">
         <v>0</v>
@@ -2179,66 +3622,156 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB16">
         <v>0</v>
       </c>
       <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
         <v>50</v>
       </c>
-      <c r="AD16">
+      <c r="AJ16">
         <v>50</v>
       </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>50</v>
+      </c>
+      <c r="AT16">
+        <v>50</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>50</v>
+      </c>
+      <c r="BC16">
+        <v>50</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>100</v>
+      </c>
+      <c r="BH16">
+        <v>100</v>
+      </c>
+      <c r="BI16">
+        <v>100</v>
+      </c>
+      <c r="BJ16">
+        <v>100</v>
+      </c>
+      <c r="BK16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:63">
       <c r="A17" s="1">
-        <v>349256</v>
+        <v>45495</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17">
         <v>202105</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>2021</v>
       </c>
-      <c r="E17">
-        <v>53000824</v>
-      </c>
-      <c r="F17">
+      <c r="G17">
         <v>6109019516</v>
       </c>
-      <c r="G17" t="s">
-        <v>64</v>
-      </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J17">
+        <v>4884031000</v>
+      </c>
+      <c r="K17">
         <v>38.30909090909091</v>
       </c>
-      <c r="K17" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17">
-        <v>4884031000</v>
+      <c r="L17" t="s">
+        <v>101</v>
       </c>
       <c r="M17">
         <v>645475</v>
@@ -2250,96 +3783,186 @@
         <v>18833</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>63.63</v>
       </c>
       <c r="Q17">
+        <v>36.37</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>3.1</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
       <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>60.53</v>
+      </c>
+      <c r="X17">
+        <v>36.37</v>
+      </c>
+      <c r="Y17">
         <v>84.42</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
+      <c r="Z17">
         <v>12.48</v>
       </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
+      <c r="AA17">
+        <v>3.1</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>3.1</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
         <v>84.42</v>
       </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>12.48</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>84.42</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
         <v>8.5</v>
       </c>
-      <c r="AE17">
+      <c r="AU17">
         <v>7.08</v>
       </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>3.1</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>7.08</v>
+      </c>
+      <c r="BB17">
+        <v>89.81999999999999</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>84.42</v>
+      </c>
+      <c r="BE17">
+        <v>3.1</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>87.52</v>
+      </c>
+      <c r="BH17">
+        <v>92.92</v>
+      </c>
+      <c r="BI17">
+        <v>92.92</v>
+      </c>
+      <c r="BJ17">
+        <v>25</v>
+      </c>
+      <c r="BK17">
+        <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:63">
       <c r="A18" s="1">
-        <v>371294</v>
+        <v>48313</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18">
         <v>202106</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>2021</v>
       </c>
-      <c r="E18">
-        <v>46266540</v>
-      </c>
-      <c r="F18">
+      <c r="G18">
         <v>6129602973</v>
       </c>
-      <c r="G18" t="s">
-        <v>65</v>
-      </c>
       <c r="H18" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="J18">
+        <v>4884031000</v>
+      </c>
+      <c r="K18">
         <v>25.70909090909091</v>
       </c>
-      <c r="K18" t="s">
-        <v>70</v>
-      </c>
-      <c r="L18">
-        <v>4884031000</v>
+      <c r="L18" t="s">
+        <v>101</v>
       </c>
       <c r="M18">
         <v>285668</v>
@@ -2351,34 +3974,34 @@
         <v>28350</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>88.18000000000001</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>11.82</v>
       </c>
       <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
         <v>88.18000000000001</v>
       </c>
-      <c r="S18">
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
         <v>11.82</v>
       </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
       <c r="Y18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2393,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -2404,43 +4027,133 @@
       <c r="AG18">
         <v>0</v>
       </c>
+      <c r="AH18">
+        <v>88.18000000000001</v>
+      </c>
+      <c r="AI18">
+        <v>11.82</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>100</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>100</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>11.82</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:63">
       <c r="A19" s="1">
-        <v>371295</v>
+        <v>48314</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19">
         <v>202106</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>2021</v>
       </c>
-      <c r="E19">
-        <v>53000824</v>
-      </c>
-      <c r="F19">
+      <c r="G19">
         <v>6109019516</v>
       </c>
-      <c r="G19" t="s">
-        <v>64</v>
-      </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J19">
+        <v>4884031000</v>
+      </c>
+      <c r="K19">
         <v>38.30909090909091</v>
       </c>
-      <c r="K19" t="s">
-        <v>70</v>
-      </c>
-      <c r="L19">
-        <v>4884031000</v>
+      <c r="L19" t="s">
+        <v>101</v>
       </c>
       <c r="M19">
         <v>865020</v>
@@ -2452,7 +4165,7 @@
         <v>32080</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -2461,87 +4174,177 @@
         <v>0</v>
       </c>
       <c r="S19">
+        <v>55.11</v>
+      </c>
+      <c r="T19">
+        <v>13.72</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>31.17</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>54.11</v>
+      </c>
+      <c r="Z19">
+        <v>45.89</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
         <v>2.18</v>
       </c>
-      <c r="T19">
+      <c r="AJ19">
         <v>54.11</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
         <v>11.53</v>
       </c>
-      <c r="Y19">
+      <c r="AO19">
         <v>32.17</v>
       </c>
-      <c r="Z19">
+      <c r="AP19">
         <v>22.94</v>
       </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
         <v>31.17</v>
       </c>
-      <c r="AD19">
+      <c r="AT19">
         <v>13.72</v>
       </c>
-      <c r="AE19">
+      <c r="AU19">
         <v>32.17</v>
       </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>67.83</v>
+      </c>
+      <c r="BC19">
+        <v>32.17</v>
+      </c>
+      <c r="BD19">
+        <v>54.11</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>25.12</v>
+      </c>
+      <c r="BH19">
+        <v>68.83</v>
+      </c>
+      <c r="BI19">
+        <v>68.83</v>
+      </c>
+      <c r="BJ19">
+        <v>60</v>
+      </c>
+      <c r="BK19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:63">
       <c r="A20" s="1">
-        <v>393430</v>
+        <v>51132</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20">
         <v>202107</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>2021</v>
       </c>
-      <c r="E20">
-        <v>46266540</v>
-      </c>
-      <c r="F20">
+      <c r="G20">
         <v>6129602973</v>
       </c>
-      <c r="G20" t="s">
-        <v>65</v>
-      </c>
       <c r="H20" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="I20" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="J20">
+        <v>4884031000</v>
+      </c>
+      <c r="K20">
         <v>25.70909090909091</v>
       </c>
-      <c r="K20" t="s">
-        <v>70</v>
-      </c>
-      <c r="L20">
-        <v>4884031000</v>
+      <c r="L20" t="s">
+        <v>101</v>
       </c>
       <c r="M20">
         <v>279339</v>
@@ -2553,96 +4356,186 @@
         <v>27800</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>100</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>100</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
         <v>89.93000000000001</v>
       </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
         <v>10.07</v>
       </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
         <v>10.07</v>
       </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
         <v>89.93000000000001</v>
       </c>
-      <c r="AG20">
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>100</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>10.07</v>
+      </c>
+      <c r="BI20">
+        <v>10.07</v>
+      </c>
+      <c r="BJ20">
+        <v>50</v>
+      </c>
+      <c r="BK20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:63">
       <c r="A21" s="1">
-        <v>393431</v>
+        <v>51133</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21">
         <v>202107</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>2021</v>
       </c>
-      <c r="E21">
-        <v>53000824</v>
-      </c>
-      <c r="F21">
+      <c r="G21">
         <v>6109019516</v>
       </c>
-      <c r="G21" t="s">
-        <v>64</v>
-      </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I21" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J21">
+        <v>4884031000</v>
+      </c>
+      <c r="K21">
         <v>38.30909090909091</v>
       </c>
-      <c r="K21" t="s">
-        <v>70</v>
-      </c>
-      <c r="L21">
-        <v>4884031000</v>
+      <c r="L21" t="s">
+        <v>101</v>
       </c>
       <c r="M21">
         <v>846055</v>
@@ -2654,7 +4547,7 @@
         <v>84200</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -2663,32 +4556,32 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>89.06999999999999</v>
       </c>
       <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>10.93</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
         <v>89.06999999999999</v>
       </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
+      <c r="AA21">
         <v>10.93</v>
       </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
       <c r="AB21">
         <v>0</v>
       </c>
@@ -2696,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="AD21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -2707,43 +4600,133 @@
       <c r="AG21">
         <v>0</v>
       </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>89.06999999999999</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>10.93</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>100</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>10.93</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>89.06999999999999</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>89.06999999999999</v>
+      </c>
+      <c r="BH21">
+        <v>100</v>
+      </c>
+      <c r="BI21">
+        <v>100</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:63">
       <c r="A22" s="1">
-        <v>415541</v>
+        <v>53955</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22">
         <v>202108</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>2021</v>
       </c>
-      <c r="E22">
-        <v>46266540</v>
-      </c>
-      <c r="F22">
+      <c r="G22">
         <v>6129602973</v>
       </c>
-      <c r="G22" t="s">
-        <v>65</v>
-      </c>
       <c r="H22" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="I22" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="J22">
+        <v>4884031000</v>
+      </c>
+      <c r="K22">
         <v>25.70909090909091</v>
       </c>
-      <c r="K22" t="s">
-        <v>70</v>
-      </c>
-      <c r="L22">
-        <v>4884031000</v>
+      <c r="L22" t="s">
+        <v>101</v>
       </c>
       <c r="M22">
         <v>74632</v>
@@ -2755,10 +4738,10 @@
         <v>7450</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>44.97</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>55.03</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2773,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>44.97</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -2782,69 +4765,159 @@
         <v>55.03</v>
       </c>
       <c r="Y22">
+        <v>100</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>55.03</v>
+      </c>
+      <c r="AO22">
         <v>44.97</v>
       </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>100</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>100</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>100</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>55.03</v>
+      </c>
+      <c r="BH22">
+        <v>100</v>
+      </c>
+      <c r="BI22">
+        <v>100</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:63">
       <c r="A23" s="1">
-        <v>415542</v>
+        <v>53956</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23">
         <v>202108</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>2021</v>
       </c>
-      <c r="E23">
-        <v>53000824</v>
-      </c>
-      <c r="F23">
+      <c r="G23">
         <v>6109019516</v>
       </c>
-      <c r="G23" t="s">
-        <v>64</v>
-      </c>
       <c r="H23" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I23" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J23">
+        <v>4884031000</v>
+      </c>
+      <c r="K23">
         <v>38.30909090909091</v>
       </c>
-      <c r="K23" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23">
-        <v>4884031000</v>
+      <c r="L23" t="s">
+        <v>101</v>
       </c>
       <c r="M23">
         <v>54096</v>
@@ -2856,7 +4929,7 @@
         <v>5400</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2868,14 +4941,14 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
         <v>50</v>
       </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
       <c r="W23">
         <v>0</v>
       </c>
@@ -2883,13 +4956,13 @@
         <v>0</v>
       </c>
       <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
         <v>50</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
       <c r="AA23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -2898,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE23">
         <v>0</v>
@@ -2909,43 +4982,133 @@
       <c r="AG23">
         <v>0</v>
       </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>50</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>50</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>100</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>50</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>50</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>50</v>
+      </c>
+      <c r="BG23">
+        <v>50</v>
+      </c>
+      <c r="BH23">
+        <v>100</v>
+      </c>
+      <c r="BI23">
+        <v>100</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:63">
       <c r="A24" s="1">
-        <v>437694</v>
+        <v>56777</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24">
         <v>202109</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>2021</v>
       </c>
-      <c r="E24">
-        <v>53000824</v>
-      </c>
-      <c r="F24">
+      <c r="G24">
         <v>6109019516</v>
       </c>
-      <c r="G24" t="s">
-        <v>64</v>
-      </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I24" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J24">
+        <v>4884031000</v>
+      </c>
+      <c r="K24">
         <v>38.30909090909091</v>
       </c>
-      <c r="K24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L24">
-        <v>4884031000</v>
+      <c r="L24" t="s">
+        <v>101</v>
       </c>
       <c r="M24">
         <v>197246</v>
@@ -2957,7 +5120,7 @@
         <v>19500</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -2969,84 +5132,174 @@
         <v>0</v>
       </c>
       <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>100</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
         <v>3.85</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
+      <c r="AA24">
         <v>96.15000000000001</v>
       </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
       <c r="AB24">
         <v>0</v>
       </c>
       <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
         <v>3.85</v>
       </c>
-      <c r="AD24">
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
         <v>96.15000000000001</v>
       </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>3.85</v>
+      </c>
+      <c r="AT24">
+        <v>96.15000000000001</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>96.15000000000001</v>
+      </c>
+      <c r="BC24">
+        <v>3.85</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>100</v>
+      </c>
+      <c r="BH24">
+        <v>100</v>
+      </c>
+      <c r="BI24">
+        <v>100</v>
+      </c>
+      <c r="BJ24">
+        <v>0</v>
+      </c>
+      <c r="BK24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:63">
       <c r="A25" s="1">
-        <v>459894</v>
+        <v>59609</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25">
         <v>202110</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>2021</v>
       </c>
-      <c r="E25">
-        <v>46266540</v>
-      </c>
-      <c r="F25">
+      <c r="G25">
         <v>6129602973</v>
       </c>
-      <c r="G25" t="s">
-        <v>65</v>
-      </c>
       <c r="H25" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="I25" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="J25">
+        <v>4884031000</v>
+      </c>
+      <c r="K25">
         <v>25.70909090909091</v>
       </c>
-      <c r="K25" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25">
-        <v>4884031000</v>
+      <c r="L25" t="s">
+        <v>101</v>
       </c>
       <c r="M25">
         <v>385773</v>
@@ -3058,96 +5311,186 @@
         <v>12683</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>68.2</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="V25">
+        <v>13.8</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y25">
+        <v>83.44</v>
+      </c>
+      <c r="Z25">
+        <v>16.56</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
         <v>84.76000000000001</v>
       </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
         <v>8.800000000000001</v>
       </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
         <v>6.44</v>
       </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
         <v>25.36</v>
       </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
         <v>68.2</v>
       </c>
-      <c r="AG25">
+      <c r="AW25">
         <v>6.44</v>
       </c>
+      <c r="AX25">
+        <v>16.56</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>74.64</v>
+      </c>
+      <c r="BB25">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BH25">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BI25">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BJ25">
+        <v>0</v>
+      </c>
+      <c r="BK25">
+        <v>50</v>
+      </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:63">
       <c r="A26" s="1">
-        <v>459895</v>
+        <v>59610</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26">
         <v>202110</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>2021</v>
       </c>
-      <c r="E26">
-        <v>53000824</v>
-      </c>
-      <c r="F26">
+      <c r="G26">
         <v>6109019516</v>
       </c>
-      <c r="G26" t="s">
-        <v>64</v>
-      </c>
       <c r="H26" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I26" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J26">
+        <v>4884031000</v>
+      </c>
+      <c r="K26">
         <v>38.30909090909091</v>
       </c>
-      <c r="K26" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26">
-        <v>4884031000</v>
+      <c r="L26" t="s">
+        <v>101</v>
       </c>
       <c r="M26">
         <v>732763</v>
@@ -3159,96 +5502,186 @@
         <v>15956</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>7.66</v>
+      </c>
+      <c r="T26">
+        <v>3.69</v>
+      </c>
+      <c r="U26">
+        <v>15.04</v>
+      </c>
+      <c r="V26">
+        <v>48.75</v>
+      </c>
+      <c r="W26">
+        <v>24.86</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>22.7</v>
+      </c>
+      <c r="Z26">
+        <v>53.97</v>
+      </c>
+      <c r="AA26">
+        <v>23.33</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
         <v>3.97</v>
       </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
         <v>24.58</v>
       </c>
-      <c r="T26">
+      <c r="AJ26">
         <v>2.44</v>
       </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
         <v>5.22</v>
       </c>
-      <c r="Y26">
+      <c r="AO26">
         <v>63.79</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
         <v>66.23</v>
       </c>
-      <c r="AD26">
+      <c r="AT26">
         <v>32.52</v>
       </c>
-      <c r="AE26">
+      <c r="AU26">
         <v>1.25</v>
       </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>5.22</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>5.22</v>
+      </c>
+      <c r="BB26">
+        <v>23.33</v>
+      </c>
+      <c r="BC26">
+        <v>66.23</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>3.97</v>
+      </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
+      <c r="BG26">
+        <v>93.52</v>
+      </c>
+      <c r="BH26">
+        <v>94.78</v>
+      </c>
+      <c r="BI26">
+        <v>100</v>
+      </c>
+      <c r="BJ26">
+        <v>12.5</v>
+      </c>
+      <c r="BK26">
+        <v>12.5</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:63">
       <c r="A27" s="1">
-        <v>482166</v>
+        <v>62443</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27">
         <v>202111</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>2021</v>
       </c>
-      <c r="E27">
-        <v>46266540</v>
-      </c>
-      <c r="F27">
+      <c r="G27">
         <v>6129602973</v>
       </c>
-      <c r="G27" t="s">
-        <v>65</v>
-      </c>
       <c r="H27" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="I27" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="J27">
+        <v>4884031000</v>
+      </c>
+      <c r="K27">
         <v>25.70909090909091</v>
       </c>
-      <c r="K27" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27">
-        <v>4884031000</v>
+      <c r="L27" t="s">
+        <v>101</v>
       </c>
       <c r="M27">
         <v>64587</v>
@@ -3260,16 +5693,16 @@
         <v>6250</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>51.2</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>48.8</v>
       </c>
       <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>51.2</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -3290,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA27">
         <v>0</v>
@@ -3299,57 +5732,147 @@
         <v>0</v>
       </c>
       <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
         <v>51.2</v>
       </c>
-      <c r="AD27">
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
         <v>48.8</v>
       </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>51.2</v>
+      </c>
+      <c r="AT27">
+        <v>48.8</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>48.8</v>
+      </c>
+      <c r="BA27">
+        <v>51.2</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>51.2</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <v>51.2</v>
+      </c>
+      <c r="BH27">
+        <v>51.2</v>
+      </c>
+      <c r="BI27">
+        <v>51.2</v>
+      </c>
+      <c r="BJ27">
+        <v>50</v>
+      </c>
+      <c r="BK27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:63">
       <c r="A28" s="1">
-        <v>482167</v>
+        <v>62444</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28">
         <v>202111</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>2021</v>
       </c>
-      <c r="E28">
-        <v>53000824</v>
-      </c>
-      <c r="F28">
+      <c r="G28">
         <v>6109019516</v>
       </c>
-      <c r="G28" t="s">
-        <v>64</v>
-      </c>
       <c r="H28" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I28" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J28">
+        <v>4884031000</v>
+      </c>
+      <c r="K28">
         <v>38.30909090909091</v>
       </c>
-      <c r="K28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L28">
-        <v>4884031000</v>
+      <c r="L28" t="s">
+        <v>101</v>
       </c>
       <c r="M28">
         <v>94679</v>
@@ -3361,96 +5884,186 @@
         <v>3480</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>65.52</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>34.48</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>10.34</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>28.74</v>
       </c>
       <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>26.44</v>
+      </c>
+      <c r="X28">
         <v>34.48</v>
       </c>
-      <c r="V28">
+      <c r="Y28">
+        <v>100</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>34.48</v>
+      </c>
+      <c r="AL28">
         <v>28.74</v>
       </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
         <v>36.78</v>
       </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
         <v>71.26000000000001</v>
       </c>
-      <c r="AD28">
+      <c r="AT28">
         <v>28.74</v>
       </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>63.22</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>36.78</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>34.48</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>65.52</v>
+      </c>
+      <c r="BH28">
+        <v>65.52</v>
+      </c>
+      <c r="BI28">
+        <v>65.52</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>66.7</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:63">
       <c r="A29" s="1">
-        <v>504452</v>
+        <v>65272</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29">
         <v>202112</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>2021</v>
       </c>
-      <c r="E29">
-        <v>53000824</v>
-      </c>
-      <c r="F29">
+      <c r="G29">
         <v>6109019516</v>
       </c>
-      <c r="G29" t="s">
-        <v>64</v>
-      </c>
       <c r="H29" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J29">
+        <v>4884031000</v>
+      </c>
+      <c r="K29">
         <v>38.30909090909091</v>
       </c>
-      <c r="K29" t="s">
-        <v>70</v>
-      </c>
-      <c r="L29">
-        <v>4884031000</v>
+      <c r="L29" t="s">
+        <v>101</v>
       </c>
       <c r="M29">
         <v>551806</v>
@@ -3462,7 +6075,7 @@
         <v>35600</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -3471,87 +6084,177 @@
         <v>0</v>
       </c>
       <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>48.5</v>
+      </c>
+      <c r="W29">
+        <v>51.5</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>48.5</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>51.5</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
         <v>46.82</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
         <v>53.18</v>
       </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
         <v>1.69</v>
       </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
         <v>98.31</v>
       </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>98.31</v>
+      </c>
+      <c r="BC29">
+        <v>1.69</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>53.18</v>
+      </c>
+      <c r="BH29">
+        <v>100</v>
+      </c>
+      <c r="BI29">
+        <v>100</v>
+      </c>
+      <c r="BJ29">
+        <v>66.7</v>
+      </c>
+      <c r="BK29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:63">
       <c r="A30" s="1">
-        <v>526773</v>
+        <v>68106</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30">
         <v>202201</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>2022</v>
       </c>
-      <c r="E30">
-        <v>53000824</v>
-      </c>
-      <c r="F30">
+      <c r="G30">
         <v>6109019516</v>
       </c>
-      <c r="G30" t="s">
-        <v>64</v>
-      </c>
       <c r="H30" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I30" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J30">
+        <v>4884031000</v>
+      </c>
+      <c r="K30">
         <v>38.30909090909091</v>
       </c>
-      <c r="K30" t="s">
-        <v>70</v>
-      </c>
-      <c r="L30">
-        <v>4884031000</v>
+      <c r="L30" t="s">
+        <v>101</v>
       </c>
       <c r="M30">
         <v>790517</v>
@@ -3563,96 +6266,186 @@
         <v>11115</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>96.54000000000001</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>3.46</v>
       </c>
       <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>42.98</v>
+      </c>
+      <c r="T30">
+        <v>4.98</v>
+      </c>
+      <c r="U30">
+        <v>5.95</v>
+      </c>
+      <c r="V30">
+        <v>4.5</v>
+      </c>
+      <c r="W30">
+        <v>38.13</v>
+      </c>
+      <c r="X30">
+        <v>3.46</v>
+      </c>
+      <c r="Y30">
+        <v>85.61</v>
+      </c>
+      <c r="Z30">
+        <v>11.9</v>
+      </c>
+      <c r="AA30">
+        <v>2.49</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
         <v>4.84</v>
       </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
         <v>36.68</v>
       </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
         <v>8.51</v>
       </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
         <v>15.36</v>
       </c>
-      <c r="Y30">
+      <c r="AO30">
         <v>34.6</v>
       </c>
-      <c r="Z30">
+      <c r="AP30">
         <v>34.6</v>
       </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
         <v>36.68</v>
       </c>
-      <c r="AD30">
+      <c r="AT30">
         <v>13.36</v>
       </c>
-      <c r="AE30">
+      <c r="AU30">
         <v>15.36</v>
       </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>8.51</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>20.21</v>
+      </c>
+      <c r="BB30">
+        <v>34.6</v>
+      </c>
+      <c r="BC30">
+        <v>36.68</v>
+      </c>
+      <c r="BD30">
+        <v>34.6</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <v>0</v>
+      </c>
+      <c r="BG30">
+        <v>79.79000000000001</v>
+      </c>
+      <c r="BH30">
+        <v>79.79000000000001</v>
+      </c>
+      <c r="BI30">
+        <v>79.79000000000001</v>
+      </c>
+      <c r="BJ30">
+        <v>16.7</v>
+      </c>
+      <c r="BK30">
+        <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:63">
       <c r="A31" s="1">
-        <v>549050</v>
+        <v>70935</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31">
         <v>202202</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>2022</v>
       </c>
-      <c r="E31">
-        <v>53000824</v>
-      </c>
-      <c r="F31">
+      <c r="G31">
         <v>6109019516</v>
       </c>
-      <c r="G31" t="s">
-        <v>64</v>
-      </c>
       <c r="H31" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I31" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J31">
+        <v>4884031000</v>
+      </c>
+      <c r="K31">
         <v>38.30909090909091</v>
       </c>
-      <c r="K31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L31">
-        <v>4884031000</v>
+      <c r="L31" t="s">
+        <v>101</v>
       </c>
       <c r="M31">
         <v>44901</v>
@@ -3664,96 +6457,186 @@
         <v>2900</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>82.76000000000001</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
         <v>17.24</v>
       </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>100</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>17.24</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
         <v>41.38</v>
       </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
         <v>41.38</v>
       </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
         <v>41.38</v>
       </c>
-      <c r="AD31">
+      <c r="AT31">
         <v>17.24</v>
       </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
         <v>41.38</v>
       </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>100</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>41.38</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>0</v>
+      </c>
+      <c r="BG31">
+        <v>82.76000000000001</v>
+      </c>
+      <c r="BH31">
+        <v>82.76000000000001</v>
+      </c>
+      <c r="BI31">
+        <v>82.76000000000001</v>
+      </c>
+      <c r="BJ31">
+        <v>0</v>
+      </c>
+      <c r="BK31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:63">
       <c r="A32" s="1">
-        <v>593726</v>
+        <v>76625</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32">
         <v>202204</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>2022</v>
       </c>
-      <c r="E32">
-        <v>53000824</v>
-      </c>
-      <c r="F32">
+      <c r="G32">
         <v>6109019516</v>
       </c>
-      <c r="G32" t="s">
-        <v>64</v>
-      </c>
       <c r="H32" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I32" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J32">
+        <v>4884031000</v>
+      </c>
+      <c r="K32">
         <v>38.30909090909091</v>
       </c>
-      <c r="K32" t="s">
-        <v>70</v>
-      </c>
-      <c r="L32">
-        <v>4884031000</v>
+      <c r="L32" t="s">
+        <v>101</v>
       </c>
       <c r="M32">
         <v>68482</v>
@@ -3765,22 +6648,22 @@
         <v>4467</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>48.51</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>51.49</v>
       </c>
       <c r="R32">
         <v>0</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>37.31</v>
       </c>
       <c r="T32">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>11.19</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3789,10 +6672,10 @@
         <v>0</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>51.49</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -3804,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="AC32">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD32">
         <v>0</v>
@@ -3818,43 +6701,133 @@
       <c r="AG32">
         <v>0</v>
       </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>100</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>100</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>100</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <v>100</v>
+      </c>
+      <c r="BH32">
+        <v>100</v>
+      </c>
+      <c r="BI32">
+        <v>100</v>
+      </c>
+      <c r="BJ32">
+        <v>0</v>
+      </c>
+      <c r="BK32">
+        <v>50</v>
+      </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:63">
       <c r="A33" s="1">
-        <v>616128</v>
+        <v>79481</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33">
         <v>202205</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>2022</v>
       </c>
-      <c r="E33">
-        <v>53000824</v>
-      </c>
-      <c r="F33">
+      <c r="G33">
         <v>6109019516</v>
       </c>
-      <c r="G33" t="s">
-        <v>64</v>
-      </c>
       <c r="H33" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I33" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J33">
+        <v>4884031000</v>
+      </c>
+      <c r="K33">
         <v>38.30909090909091</v>
       </c>
-      <c r="K33" t="s">
-        <v>70</v>
-      </c>
-      <c r="L33">
-        <v>4884031000</v>
+      <c r="L33" t="s">
+        <v>101</v>
       </c>
       <c r="M33">
         <v>801782</v>
@@ -3866,58 +6839,148 @@
         <v>22314</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>59.8</v>
+      </c>
+      <c r="T33">
+        <v>34.31</v>
+      </c>
+      <c r="U33">
+        <v>5.89</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>43.79</v>
+      </c>
+      <c r="Z33">
+        <v>56.21</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
         <v>2.3</v>
       </c>
-      <c r="R33">
+      <c r="AH33">
         <v>32.01</v>
       </c>
-      <c r="S33">
+      <c r="AI33">
         <v>2.3</v>
       </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
         <v>31.37</v>
       </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
         <v>32.01</v>
       </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
         <v>31.37</v>
       </c>
-      <c r="AD33">
+      <c r="AT33">
         <v>36.62</v>
       </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
         <v>32.01</v>
+      </c>
+      <c r="AX33">
+        <v>2.3</v>
+      </c>
+      <c r="AY33">
+        <v>31.37</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>64.02</v>
+      </c>
+      <c r="BB33">
+        <v>2.3</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>2.3</v>
+      </c>
+      <c r="BF33">
+        <v>0</v>
+      </c>
+      <c r="BG33">
+        <v>4.61</v>
+      </c>
+      <c r="BH33">
+        <v>35.98</v>
+      </c>
+      <c r="BI33">
+        <v>35.98</v>
+      </c>
+      <c r="BJ33">
+        <v>0</v>
+      </c>
+      <c r="BK33">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
